--- a/resources/_excel/学籍档案模板.xlsx
+++ b/resources/_excel/学籍档案模板.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +111,21 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F43" totalsRowShown="0">
   <autoFilter ref="A1:F43"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="姓名"/>
+    <tableColumn id="2" name="联系电话"/>
+    <tableColumn id="3" name="工作单位"/>
+    <tableColumn id="4" name="最新电话"/>
+    <tableColumn id="5" name="E-mail"/>
+    <tableColumn id="6" name="QQ号码"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:F29" totalsRowShown="0">
+  <autoFilter ref="A1:F29"/>
   <tableColumns count="6">
     <tableColumn id="1" name="姓名"/>
     <tableColumn id="2" name="联系电话"/>
@@ -411,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="A1:G2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -464,4 +480,58 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>4547330058</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>15245433016</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/resources/_excel/学籍档案模板.xlsx
+++ b/resources/_excel/学籍档案模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,10 @@
   </si>
   <si>
     <t>QQ号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱凌峰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
@@ -486,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -514,7 +518,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>4547330058</v>
